--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2769037.814683489</v>
+        <v>2766175.345583363</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="I2" t="n">
-        <v>18.28182508062843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,17 +707,17 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>22.37892513348059</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,61 +747,61 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>44.46519227902342</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,64 +826,64 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>8.386866521745247</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.386866521745231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>32.22184835001295</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47.38379687733242</v>
-      </c>
       <c r="G5" t="n">
-        <v>53.79631798062264</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,70 +972,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>47.3837968773324</v>
+      </c>
+      <c r="V6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="E6" t="n">
+      <c r="W6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,67 +1054,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.74224000600996</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W7" t="n">
-        <v>53.79631798062264</v>
+        <v>13.74224000600998</v>
       </c>
       <c r="X7" t="n">
         <v>53.79631798062264</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>73.46744821986555</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1331892653143</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331892653143</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>87.27116258160399</v>
+        <v>13.80371436173802</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157337</v>
+        <v>55.70610478157354</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.1331892653143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653143</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.96033322209386</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>166.8010284840833</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.1331892653143</v>
+        <v>119.9964532737283</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.124208253362867</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.85685983116023</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.1331892653143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695518</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703291</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>46.15319674220952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.6028762599951</v>
+        <v>98.72106119200254</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788182971</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.017717176689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>60.64713141731118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3193898991449</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.95295437098331</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="C2" t="n">
-        <v>48.95295437098331</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="D2" t="n">
-        <v>48.95295437098331</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="E2" t="n">
-        <v>48.95295437098331</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="F2" t="n">
-        <v>42.00745362177985</v>
+        <v>70.39513954258382</v>
       </c>
       <c r="G2" t="n">
-        <v>26.64359361790977</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H2" t="n">
-        <v>26.64359361790977</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
         <v>103.9944324418577</v>
       </c>
       <c r="N2" t="n">
-        <v>153.9723392949834</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
         <v>201.9309367803062</v>
@@ -4355,25 +4355,25 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>99.94561517409093</v>
+        <v>128.3333010948949</v>
       </c>
       <c r="U2" t="n">
-        <v>99.94561517409093</v>
+        <v>128.3333010948949</v>
       </c>
       <c r="V2" t="n">
-        <v>99.94561517409093</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="W2" t="n">
-        <v>99.94561517409093</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="X2" t="n">
-        <v>99.94561517409093</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.95295437098331</v>
+        <v>77.3406402917873</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>48.95295437098331</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>4.038618735606123</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>4.038618735606123</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L3" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M3" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>103.9944324418577</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
-        <v>153.9723392949834</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
-        <v>153.9723392949834</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4434,25 +4434,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T3" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.4666936320013</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C4" t="n">
-        <v>142.4666936320013</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D4" t="n">
-        <v>142.4666936320013</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4666936320013</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
-        <v>91.4740328288937</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L4" t="n">
-        <v>73.9036487032557</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M4" t="n">
-        <v>119.5318764051767</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5097832583024</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O4" t="n">
-        <v>199.656173881301</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>201.9309367803062</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="S4" t="n">
-        <v>201.9309367803062</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="T4" t="n">
-        <v>201.9309367803062</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="U4" t="n">
-        <v>201.9309367803062</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9382759771985</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9382759771985</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="X4" t="n">
-        <v>142.4666936320013</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.4666936320013</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5058416586064</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="C5" t="n">
-        <v>106.5058416586064</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="D5" t="n">
-        <v>106.5058416586064</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="E5" t="n">
-        <v>106.5058416586064</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="F5" t="n">
-        <v>58.64342057039187</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
         <v>4.303705438449811</v>
@@ -4568,22 +4568,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>55.4102075200413</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>108.6685623208577</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="M5" t="n">
-        <v>108.6685623208577</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="N5" t="n">
-        <v>161.9269171216741</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>164.078769840899</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4598,19 +4598,19 @@
         <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215.1852719224906</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>215.1852719224906</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
-        <v>160.8455567905485</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>106.5058416586064</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4644,22 +4644,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>4.303705438449811</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>4.303705438449811</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>4.303705438449811</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="N6" t="n">
-        <v>57.56206023926622</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="P6" t="n">
         <v>161.9269171216741</v>
@@ -4677,19 +4677,19 @@
         <v>215.1852719224906</v>
       </c>
       <c r="U6" t="n">
-        <v>215.1852719224906</v>
+        <v>167.322850834276</v>
       </c>
       <c r="V6" t="n">
-        <v>215.1852719224906</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="W6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.1852719224906</v>
+        <v>58.64342057039187</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C7" t="n">
         <v>4.303705438449811</v>
@@ -4747,28 +4747,28 @@
         <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>167.322850834276</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>167.322850834276</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
-        <v>167.322850834276</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="W7" t="n">
-        <v>112.9831357023339</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="X7" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>452.412258023997</v>
+        <v>280.5605516953959</v>
       </c>
       <c r="C8" t="n">
-        <v>452.412258023997</v>
+        <v>206.3510080389661</v>
       </c>
       <c r="D8" t="n">
-        <v>280.5605516953966</v>
+        <v>206.3510080389661</v>
       </c>
       <c r="E8" t="n">
-        <v>108.7088453667963</v>
+        <v>34.499301710366</v>
       </c>
       <c r="F8" t="n">
-        <v>101.7633446175928</v>
+        <v>27.55380096116252</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821338</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821338</v>
+        <v>127.7362978821335</v>
       </c>
       <c r="L8" t="n">
-        <v>128.5190723787515</v>
+        <v>296.1681552547944</v>
       </c>
       <c r="M8" t="n">
-        <v>161.0594972748387</v>
+        <v>328.7085801508812</v>
       </c>
       <c r="N8" t="n">
-        <v>198.7402686445445</v>
+        <v>497.1404375235421</v>
       </c>
       <c r="O8" t="n">
-        <v>361.7328317201558</v>
+        <v>530.1646890928162</v>
       </c>
       <c r="P8" t="n">
-        <v>530.164689092817</v>
+        <v>530.1646890928162</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612573</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525973</v>
+        <v>624.2639643525961</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="X8" t="n">
-        <v>624.2639643525973</v>
+        <v>452.412258023996</v>
       </c>
       <c r="Y8" t="n">
-        <v>452.412258023997</v>
+        <v>452.412258023996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.5327570612573</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="C9" t="n">
-        <v>508.6810507326569</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="D9" t="n">
-        <v>359.7466410714056</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="E9" t="n">
-        <v>200.5091860659501</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="F9" t="n">
-        <v>53.9746280928351</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J9" t="n">
-        <v>13.61065514122514</v>
+        <v>87.88972643578384</v>
       </c>
       <c r="K9" t="n">
-        <v>182.0425125138863</v>
+        <v>256.3215838084448</v>
       </c>
       <c r="L9" t="n">
-        <v>327.3909647582274</v>
+        <v>424.7534411811057</v>
       </c>
       <c r="M9" t="n">
-        <v>387.8667593512521</v>
+        <v>485.2292357741301</v>
       </c>
       <c r="N9" t="n">
-        <v>464.3518131915584</v>
+        <v>613.7938852597986</v>
       </c>
       <c r="O9" t="n">
-        <v>512.1008996885961</v>
+        <v>661.5429717568359</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612573</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612573</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612573</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612573</v>
+        <v>522.1635858475531</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612573</v>
+        <v>522.1635858475531</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612573</v>
+        <v>350.311879518953</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612573</v>
+        <v>350.311879518953</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612573</v>
+        <v>181.8259921612932</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612573</v>
+        <v>181.8259921612932</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612573</v>
+        <v>181.8259921612932</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.8293444040565</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="C10" t="n">
-        <v>167.8931614761496</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7765220638139</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="E10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122514</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058011</v>
+        <v>68.90447724057991</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340626</v>
+        <v>195.1879671340622</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694255</v>
+        <v>338.725324069425</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004861</v>
+        <v>484.2842999004853</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689151</v>
+        <v>602.7152779689142</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612573</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="Q10" t="n">
-        <v>680.5327570612573</v>
+        <v>650.374312787357</v>
       </c>
       <c r="R10" t="n">
-        <v>680.5327570612573</v>
+        <v>650.374312787357</v>
       </c>
       <c r="S10" t="n">
-        <v>680.5327570612573</v>
+        <v>478.5226064587569</v>
       </c>
       <c r="T10" t="n">
-        <v>680.5327570612573</v>
+        <v>306.6709001301568</v>
       </c>
       <c r="U10" t="n">
-        <v>680.5327570612573</v>
+        <v>134.8191938015568</v>
       </c>
       <c r="V10" t="n">
-        <v>680.5327570612573</v>
+        <v>134.8191938015568</v>
       </c>
       <c r="W10" t="n">
-        <v>680.5327570612573</v>
+        <v>134.8191938015568</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5327570612573</v>
+        <v>134.8191938015568</v>
       </c>
       <c r="Y10" t="n">
-        <v>508.6810507326569</v>
+        <v>134.8191938015568</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,25 +5294,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121667</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121667</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121667</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121667</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,13 +6020,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6209,52 +6209,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5658826424041</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.899304487672</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597652</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602306</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396419</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359459</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614415</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179116</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7400,7 +7400,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,7 +7439,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615996</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400744</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908935</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908935</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908935</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138439</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.502065570314</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
         <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>263.3879167614743</v>
+        <v>261.34821032935</v>
       </c>
       <c r="O2" t="n">
-        <v>262.9533152362218</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
         <v>217.9290633046618</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>174.3611053575724</v>
       </c>
       <c r="L3" t="n">
-        <v>178.2892129380686</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
         <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
         <v>181.3015543884808</v>
@@ -8076,7 +8076,7 @@
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.1061085497632</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>253.8036932114795</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>259.4212368511231</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>257.3971651030746</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>176.8437648107177</v>
       </c>
       <c r="N6" t="n">
-        <v>165.5462778056219</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>176.2963480628989</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>164.8423259806504</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1624432744798</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605286</v>
+        <v>29.4084845960532</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>169.3425079555996</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>132.0718040433896</v>
       </c>
       <c r="O8" t="n">
-        <v>142.1686266863902</v>
+        <v>10.88750395271664</v>
       </c>
       <c r="P8" t="n">
-        <v>185.804781783149</v>
+        <v>15.67159251783502</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>51.06167039640999</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570662</v>
+        <v>178.4614495570661</v>
       </c>
       <c r="L9" t="n">
-        <v>111.2245465507764</v>
+        <v>134.5411173874634</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>52.60565216703282</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477177</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001943</v>
+        <v>37.60103822001963</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-1.012564144608395e-12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392193958</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.13892827624232</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.8310863865741</v>
+        <v>47.71290145456663</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>31.13893193492464</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300292</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392193864</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>790604.233155793</v>
+        <v>790604.2331557932</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283915</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26369,16 +26369,16 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543795</v>
+        <v>325486.3975543788</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756736</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.905367756969232e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573655</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317186061</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031379</v>
+        <v>29443.81509031378</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299114</v>
+        <v>249845.7249299115</v>
       </c>
       <c r="N3" t="n">
-        <v>1.077263992296399e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278902</v>
+        <v>306360.6503278903</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719797</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719697</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719656</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.36846171967</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.36846171968</v>
       </c>
-      <c r="N4" t="n">
-        <v>7507.368461719807</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.368461719807</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719677</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241486</v>
+        <v>52100.52571241483</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208855.9563552891</v>
+        <v>208855.956355289</v>
       </c>
       <c r="C6" t="n">
-        <v>238413.5666534113</v>
+        <v>238413.5666534108</v>
       </c>
       <c r="D6" t="n">
-        <v>-6588.113456650797</v>
+        <v>-6588.113456650302</v>
       </c>
       <c r="E6" t="n">
-        <v>-541541.9172981085</v>
+        <v>-541576.6552235446</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="J6" t="n">
-        <v>544057.5419528915</v>
+        <v>544022.8040274557</v>
       </c>
       <c r="K6" t="n">
-        <v>556413.2360269093</v>
+        <v>556378.4981014737</v>
       </c>
       <c r="L6" t="n">
-        <v>527822.2313683141</v>
+        <v>527787.4934428789</v>
       </c>
       <c r="M6" t="n">
-        <v>307420.3215287165</v>
+        <v>307385.583603281</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586278</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331921</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331924</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075116</v>
+        <v>372.882009407511</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653143</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883863</v>
+        <v>337.8607486883856</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341621</v>
+        <v>995.093490934163</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.65889637895494e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846917</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507632</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546371</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846917</v>
+        <v>116.3368712846912</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846917</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>288.0445872958018</v>
       </c>
       <c r="I2" t="n">
-        <v>188.6273371087425</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>93.57486856939363</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>200.3119351534189</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.755204460977</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>86.81128248461911</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>43.22714760926622</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>120.2809871382089</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>149.4824728139983</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>175.4553912751407</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.307792924454</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>117.4667456208323</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27582,7 +27582,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>124.9446868416198</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27591,19 +27591,19 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>235.8340315500025</v>
       </c>
       <c r="V4" t="n">
-        <v>201.6549091287515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>236.0402641415145</v>
       </c>
       <c r="X4" t="n">
-        <v>217.3227888672919</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>210.1977868303496</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.9375236828579</v>
+        <v>350.5119933134677</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>359.492248864379</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
-        <v>361.3656305466968</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27670,7 +27670,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>112.7368656692447</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>103.8487624747783</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>89.88439153640687</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>57.71160912282181</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27749,13 +27749,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>178.5526293648614</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>197.898665180297</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>113.4505031180052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,22 +27819,22 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>120.6574806831568</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>213.9335134790258</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.3413253432054</v>
       </c>
       <c r="W7" t="n">
-        <v>232.7266803559684</v>
+        <v>272.780758330581</v>
       </c>
       <c r="X7" t="n">
         <v>171.9133374084145</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>212.6006523981665</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>291.805443551142</v>
       </c>
       <c r="D8" t="n">
-        <v>184.5498523553686</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069475</v>
+        <v>211.7971808069477</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>326.532551780134</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460398</v>
+        <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490668</v>
+        <v>152.6847994490669</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782105</v>
+        <v>4.727890212896476</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101358</v>
+        <v>216.5338757101359</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.1047493907393</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723001425</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>96.58113584541007</v>
+        <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642482</v>
+        <v>61.78225762642488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271165</v>
+        <v>50.36049712271174</v>
       </c>
       <c r="S9" t="n">
-        <v>156.785479501566</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8886157588888</v>
+        <v>55.75542649357479</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>84.89395467683633</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.698790916622983</v>
+        <v>59.83552690820898</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>142.3097543932063</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416837</v>
+        <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712822</v>
+        <v>45.81978032712831</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116013</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160293</v>
+        <v>147.0593845160294</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298542</v>
+        <v>42.16513316454019</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0725641098958</v>
+        <v>54.93937484458169</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>116.1491631722187</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408678048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.346579990370498e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397031</v>
+        <v>1.499023153397028</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972734</v>
+        <v>15.35187086972732</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133908</v>
+        <v>57.79109012133897</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656313</v>
+        <v>127.2277163656311</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489277</v>
+        <v>190.6813664489273</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797021</v>
+        <v>236.5570962797017</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839265</v>
+        <v>263.2153492839261</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185159</v>
+        <v>267.4744488185154</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369242</v>
+        <v>252.5685373369237</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374349</v>
+        <v>215.5614032374345</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564037</v>
+        <v>161.8776365564034</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957631</v>
+        <v>94.16301315957614</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803487</v>
+        <v>34.15899010803481</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995505</v>
+        <v>6.561973853995493</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717624</v>
+        <v>0.1199218522717622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067232</v>
+        <v>0.8020480957067218</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220197</v>
+        <v>7.746096082220182</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499025</v>
+        <v>27.6143752249902</v>
       </c>
       <c r="J9" t="n">
-        <v>75.7759562702567</v>
+        <v>75.77595627025656</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826071</v>
+        <v>129.5131786826069</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577252</v>
+        <v>174.1464516577248</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270938</v>
+        <v>203.2206951270934</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250569</v>
+        <v>208.5993422250565</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465027</v>
+        <v>190.8276449465023</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319268</v>
+        <v>153.1560087319266</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660021</v>
+        <v>102.3807358660019</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993148</v>
+        <v>49.79733702993139</v>
       </c>
       <c r="S9" t="n">
-        <v>14.8976916022718</v>
+        <v>14.89769160227177</v>
       </c>
       <c r="T9" t="n">
-        <v>3.23281666646701</v>
+        <v>3.232816666467004</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596865</v>
+        <v>0.05276632208596856</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987915</v>
+        <v>0.6724101808987902</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172895</v>
+        <v>5.978337790172884</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557457</v>
+        <v>20.22120798557453</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954455</v>
+        <v>47.53939978954446</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078684</v>
+        <v>78.1218373807867</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017125</v>
+        <v>99.96905544017106</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657987</v>
+        <v>105.4033522657985</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369942</v>
+        <v>102.897096136994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013103</v>
+        <v>95.04212266013086</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979561</v>
+        <v>81.32495496979547</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053426</v>
+        <v>56.30518342053416</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114019</v>
+        <v>30.23400686114014</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711803</v>
+        <v>11.718275607118</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385745</v>
+        <v>2.873025318385739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811594</v>
+        <v>0.03667691895811587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>476.064808938546</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="O2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.44302776295223</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="L3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
         <v>50.48273419507654</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>46.40980178192013</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="N6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="Q6" t="n">
         <v>53.79631798062264</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110188</v>
+        <v>115.2784270110186</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097148699</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665378</v>
+        <v>32.86911605665333</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192498</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="O8" t="n">
-        <v>164.6389526016276</v>
+        <v>33.35782986795358</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653143</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418589</v>
+        <v>151.8869373418586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>75.0293649439987</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653143</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="L9" t="n">
-        <v>146.8166184286273</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="M9" t="n">
-        <v>61.0866612050755</v>
+        <v>61.08666120507513</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172361</v>
+        <v>129.8632823087561</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205825</v>
+        <v>48.23140050205788</v>
       </c>
       <c r="P9" t="n">
-        <v>170.1331892653143</v>
+        <v>19.18160131759632</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490399</v>
+        <v>55.85234555490385</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004874</v>
+        <v>127.5590807004872</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276393</v>
+        <v>144.9872292276391</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162228</v>
+        <v>147.0292685162226</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741707</v>
+        <v>119.6272505741705</v>
       </c>
       <c r="P10" t="n">
-        <v>78.6035142346891</v>
+        <v>78.60351423468896</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>337.5104291586719</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
